--- a/data/daniel/output/processed_e.xlsx
+++ b/data/daniel/output/processed_e.xlsx
@@ -537,58 +537,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-73.38</v>
+        <v>-73.37869999999999</v>
       </c>
       <c r="C2" t="n">
         <v>18.36</v>
       </c>
       <c r="D2" t="n">
-        <v>30.5</v>
+        <v>30.5029</v>
       </c>
       <c r="E2" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F2" t="n">
-        <v>5.05</v>
+        <v>5.0512</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.9971</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.05</v>
+        <v>-75.0517</v>
       </c>
       <c r="I2" t="n">
         <v>-18.36</v>
       </c>
       <c r="J2" t="n">
-        <v>30.51</v>
+        <v>30.5029</v>
       </c>
       <c r="K2" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L2" t="n">
-        <v>3.04</v>
+        <v>3.0404</v>
       </c>
       <c r="M2" t="n">
-        <v>0.61</v>
+        <v>0.6148</v>
       </c>
       <c r="N2" t="n">
-        <v>-24.46</v>
+        <v>-24.4596</v>
       </c>
       <c r="O2" t="n">
         <v>6.12</v>
       </c>
       <c r="P2" t="n">
-        <v>122.01</v>
+        <v>122.0114</v>
       </c>
       <c r="Q2" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R2" t="n">
-        <v>5.05</v>
+        <v>5.0512</v>
       </c>
       <c r="S2" t="n">
-        <v>0.48</v>
+        <v>0.4827</v>
       </c>
     </row>
     <row r="3">
@@ -598,58 +598,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-73.38</v>
+        <v>-73.37869999999999</v>
       </c>
       <c r="C3" t="n">
         <v>18.36</v>
       </c>
       <c r="D3" t="n">
-        <v>30.5</v>
+        <v>30.5029</v>
       </c>
       <c r="E3" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F3" t="n">
-        <v>5.05</v>
+        <v>5.0512</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0.9971</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.05</v>
+        <v>-75.0517</v>
       </c>
       <c r="I3" t="n">
         <v>-18.36</v>
       </c>
       <c r="J3" t="n">
-        <v>30.51</v>
+        <v>30.5029</v>
       </c>
       <c r="K3" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L3" t="n">
-        <v>3.04</v>
+        <v>3.0404</v>
       </c>
       <c r="M3" t="n">
-        <v>0.61</v>
+        <v>0.6148</v>
       </c>
       <c r="N3" t="n">
-        <v>-24.46</v>
+        <v>-24.4596</v>
       </c>
       <c r="O3" t="n">
         <v>6.12</v>
       </c>
       <c r="P3" t="n">
-        <v>122.01</v>
+        <v>122.0114</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R3" t="n">
-        <v>5.05</v>
+        <v>5.0512</v>
       </c>
       <c r="S3" t="n">
-        <v>0.48</v>
+        <v>0.4827</v>
       </c>
     </row>
     <row r="4">
@@ -659,58 +659,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-95.73999999999999</v>
+        <v>-95.7377</v>
       </c>
       <c r="C4" t="n">
         <v>18.36</v>
       </c>
       <c r="D4" t="n">
-        <v>30.41</v>
+        <v>30.4053</v>
       </c>
       <c r="E4" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F4" t="n">
-        <v>4.83</v>
+        <v>4.8309</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-94.98</v>
+        <v>-94.9836</v>
       </c>
       <c r="I4" t="n">
         <v>-18.36</v>
       </c>
       <c r="J4" t="n">
-        <v>30.41</v>
+        <v>30.4053</v>
       </c>
       <c r="K4" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L4" t="n">
-        <v>3.23</v>
+        <v>3.2277</v>
       </c>
       <c r="M4" t="n">
-        <v>0.52</v>
+        <v>0.5216</v>
       </c>
       <c r="N4" t="n">
-        <v>-31.91</v>
+        <v>-31.9126</v>
       </c>
       <c r="O4" t="n">
         <v>6.12</v>
       </c>
       <c r="P4" t="n">
-        <v>121.62</v>
+        <v>121.6212</v>
       </c>
       <c r="Q4" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R4" t="n">
-        <v>4.83</v>
+        <v>4.8309</v>
       </c>
       <c r="S4" t="n">
-        <v>0.46</v>
+        <v>0.4611</v>
       </c>
     </row>
     <row r="5">
@@ -720,58 +720,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-95.88</v>
+        <v>-95.8775</v>
       </c>
       <c r="C5" t="n">
         <v>18.36</v>
       </c>
       <c r="D5" t="n">
-        <v>30.41</v>
+        <v>30.4065</v>
       </c>
       <c r="E5" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F5" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="G5" t="n">
-        <v>0.75</v>
+        <v>0.7523</v>
       </c>
       <c r="H5" t="n">
-        <v>-96.42</v>
+        <v>-96.4173</v>
       </c>
       <c r="I5" t="n">
         <v>-18.36</v>
       </c>
       <c r="J5" t="n">
-        <v>30.41</v>
+        <v>30.4065</v>
       </c>
       <c r="K5" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L5" t="n">
-        <v>3.24</v>
+        <v>3.2388</v>
       </c>
       <c r="M5" t="n">
-        <v>0.52</v>
+        <v>0.516</v>
       </c>
       <c r="N5" t="n">
-        <v>-31.96</v>
+        <v>-31.9592</v>
       </c>
       <c r="O5" t="n">
         <v>6.12</v>
       </c>
       <c r="P5" t="n">
-        <v>121.63</v>
+        <v>121.6259</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R5" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="S5" t="n">
-        <v>0.46</v>
+        <v>0.4609</v>
       </c>
     </row>
     <row r="6">
@@ -781,58 +781,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-95.20999999999999</v>
+        <v>-95.2073</v>
       </c>
       <c r="C6" t="n">
         <v>18.36</v>
       </c>
       <c r="D6" t="n">
-        <v>30.87</v>
+        <v>30.8714</v>
       </c>
       <c r="E6" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F6" t="n">
-        <v>4.84</v>
+        <v>4.8364</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.7562</v>
       </c>
       <c r="H6" t="n">
-        <v>-96.22</v>
+        <v>-96.22369999999999</v>
       </c>
       <c r="I6" t="n">
         <v>-18.36</v>
       </c>
       <c r="J6" t="n">
-        <v>30.87</v>
+        <v>30.8714</v>
       </c>
       <c r="K6" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L6" t="n">
-        <v>3.24</v>
+        <v>3.2373</v>
       </c>
       <c r="M6" t="n">
-        <v>0.52</v>
+        <v>0.5158</v>
       </c>
       <c r="N6" t="n">
-        <v>-31.74</v>
+        <v>-31.7358</v>
       </c>
       <c r="O6" t="n">
         <v>6.12</v>
       </c>
       <c r="P6" t="n">
-        <v>123.49</v>
+        <v>123.4855</v>
       </c>
       <c r="Q6" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R6" t="n">
-        <v>4.84</v>
+        <v>4.8364</v>
       </c>
       <c r="S6" t="n">
-        <v>0.45</v>
+        <v>0.4504</v>
       </c>
     </row>
     <row r="7">
@@ -842,58 +842,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-94.7</v>
+        <v>-94.6998</v>
       </c>
       <c r="C7" t="n">
         <v>18.36</v>
       </c>
       <c r="D7" t="n">
-        <v>53.96</v>
+        <v>53.9572</v>
       </c>
       <c r="E7" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F7" t="n">
-        <v>4.84</v>
+        <v>4.8417</v>
       </c>
       <c r="G7" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="H7" t="n">
-        <v>-95.76000000000001</v>
+        <v>-95.7612</v>
       </c>
       <c r="I7" t="n">
         <v>-18.36</v>
       </c>
       <c r="J7" t="n">
-        <v>53.96</v>
+        <v>53.9572</v>
       </c>
       <c r="K7" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L7" t="n">
-        <v>3.23</v>
+        <v>3.2338</v>
       </c>
       <c r="M7" t="n">
-        <v>0.46</v>
+        <v>0.4618</v>
       </c>
       <c r="N7" t="n">
-        <v>-31.57</v>
+        <v>-31.5666</v>
       </c>
       <c r="O7" t="n">
         <v>6.12</v>
       </c>
       <c r="P7" t="n">
-        <v>215.83</v>
+        <v>215.8289</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R7" t="n">
-        <v>4.84</v>
+        <v>4.8417</v>
       </c>
       <c r="S7" t="n">
-        <v>0.17</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="8">
@@ -903,58 +903,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-94.7</v>
+        <v>-94.6998</v>
       </c>
       <c r="C8" t="n">
         <v>18.36</v>
       </c>
       <c r="D8" t="n">
-        <v>53.96</v>
+        <v>53.9572</v>
       </c>
       <c r="E8" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F8" t="n">
-        <v>4.84</v>
+        <v>4.8417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.65</v>
+        <v>0.646</v>
       </c>
       <c r="H8" t="n">
-        <v>-95.76000000000001</v>
+        <v>-95.7612</v>
       </c>
       <c r="I8" t="n">
         <v>-18.36</v>
       </c>
       <c r="J8" t="n">
-        <v>53.96</v>
+        <v>53.9572</v>
       </c>
       <c r="K8" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L8" t="n">
-        <v>3.23</v>
+        <v>3.2338</v>
       </c>
       <c r="M8" t="n">
-        <v>0.46</v>
+        <v>0.4618</v>
       </c>
       <c r="N8" t="n">
-        <v>-31.57</v>
+        <v>-31.5666</v>
       </c>
       <c r="O8" t="n">
         <v>6.12</v>
       </c>
       <c r="P8" t="n">
-        <v>215.83</v>
+        <v>215.8289</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R8" t="n">
-        <v>4.84</v>
+        <v>4.8417</v>
       </c>
       <c r="S8" t="n">
-        <v>0.17</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="9">
@@ -964,58 +964,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-95.20999999999999</v>
+        <v>-95.2073</v>
       </c>
       <c r="C9" t="n">
         <v>18.36</v>
       </c>
       <c r="D9" t="n">
-        <v>30.87</v>
+        <v>30.8714</v>
       </c>
       <c r="E9" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F9" t="n">
-        <v>4.84</v>
+        <v>4.8364</v>
       </c>
       <c r="G9" t="n">
-        <v>0.76</v>
+        <v>0.7562</v>
       </c>
       <c r="H9" t="n">
-        <v>-96.22</v>
+        <v>-96.22369999999999</v>
       </c>
       <c r="I9" t="n">
         <v>-18.36</v>
       </c>
       <c r="J9" t="n">
-        <v>30.87</v>
+        <v>30.8714</v>
       </c>
       <c r="K9" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L9" t="n">
-        <v>3.24</v>
+        <v>3.2373</v>
       </c>
       <c r="M9" t="n">
-        <v>0.52</v>
+        <v>0.5158</v>
       </c>
       <c r="N9" t="n">
-        <v>-31.74</v>
+        <v>-31.7358</v>
       </c>
       <c r="O9" t="n">
         <v>6.12</v>
       </c>
       <c r="P9" t="n">
-        <v>123.49</v>
+        <v>123.4855</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R9" t="n">
-        <v>4.84</v>
+        <v>4.8364</v>
       </c>
       <c r="S9" t="n">
-        <v>0.45</v>
+        <v>0.4504</v>
       </c>
     </row>
     <row r="10">
@@ -1025,58 +1025,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-95.88</v>
+        <v>-95.8775</v>
       </c>
       <c r="C10" t="n">
         <v>18.36</v>
       </c>
       <c r="D10" t="n">
-        <v>30.41</v>
+        <v>30.4065</v>
       </c>
       <c r="E10" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F10" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="G10" t="n">
-        <v>0.75</v>
+        <v>0.7523</v>
       </c>
       <c r="H10" t="n">
-        <v>-96.42</v>
+        <v>-96.4173</v>
       </c>
       <c r="I10" t="n">
         <v>-18.36</v>
       </c>
       <c r="J10" t="n">
-        <v>30.41</v>
+        <v>30.4065</v>
       </c>
       <c r="K10" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L10" t="n">
-        <v>3.24</v>
+        <v>3.2388</v>
       </c>
       <c r="M10" t="n">
-        <v>0.52</v>
+        <v>0.516</v>
       </c>
       <c r="N10" t="n">
-        <v>-31.96</v>
+        <v>-31.9592</v>
       </c>
       <c r="O10" t="n">
         <v>6.12</v>
       </c>
       <c r="P10" t="n">
-        <v>121.63</v>
+        <v>121.6259</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R10" t="n">
-        <v>4.83</v>
+        <v>4.8295</v>
       </c>
       <c r="S10" t="n">
-        <v>0.46</v>
+        <v>0.4609</v>
       </c>
     </row>
     <row r="11">
@@ -1086,58 +1086,58 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-95.73999999999999</v>
+        <v>-95.7377</v>
       </c>
       <c r="C11" t="n">
         <v>18.36</v>
       </c>
       <c r="D11" t="n">
-        <v>30.41</v>
+        <v>30.4053</v>
       </c>
       <c r="E11" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="F11" t="n">
-        <v>4.83</v>
+        <v>4.8309</v>
       </c>
       <c r="G11" t="n">
-        <v>0.75</v>
+        <v>0.7534999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>-94.98</v>
+        <v>-94.9836</v>
       </c>
       <c r="I11" t="n">
         <v>-18.36</v>
       </c>
       <c r="J11" t="n">
-        <v>30.41</v>
+        <v>30.4053</v>
       </c>
       <c r="K11" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="L11" t="n">
-        <v>3.23</v>
+        <v>3.2277</v>
       </c>
       <c r="M11" t="n">
-        <v>0.52</v>
+        <v>0.5216</v>
       </c>
       <c r="N11" t="n">
-        <v>-31.91</v>
+        <v>-31.9126</v>
       </c>
       <c r="O11" t="n">
         <v>6.12</v>
       </c>
       <c r="P11" t="n">
-        <v>121.62</v>
+        <v>121.6212</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.62</v>
+        <v>5.6244</v>
       </c>
       <c r="R11" t="n">
-        <v>4.83</v>
+        <v>4.8309</v>
       </c>
       <c r="S11" t="n">
-        <v>0.46</v>
+        <v>0.4611</v>
       </c>
     </row>
   </sheetData>
